--- a/kpi_analysis/CleanedData/siteNameCleaned.xlsx
+++ b/kpi_analysis/CleanedData/siteNameCleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2457 +434,1968 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SiteCode</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SiteCode</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>SiteName</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Site Code 3</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Site Code 3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Site Name</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MID0067</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MID0067</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Munyati</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MID0219</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MID0219</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Mkoba 18</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MID0056</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MID0056</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Tokwe 4</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>7</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MID0099</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MID0099</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Chirere</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>12</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MID0098</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MID0098</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Mandamabwe</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>15</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MID0172</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MID0172</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Chireya</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>18</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MID0210</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MID0210</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>Holy Cross Mission</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>21</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MID0169</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MID0169</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>Daylesford</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>27</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MID0163</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MID0163</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>Chitekete</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>30</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MID0027</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MID0027</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>Rutendo</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>36</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MID0066</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MID0066</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>Sengwa</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>39</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MID0040</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MID0040</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>Mataga</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>42</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MID0190</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MID0190</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>Masase Mission</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MID0101</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MID0101</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>Sandawana</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>48</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MID0031</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MID0031</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>Buchwa</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>51</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MID0043</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MID0043</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>Murowa Diamond Mine</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>59</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MID0017</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MID0017</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>Amaveni</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>60</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MID0042</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MID0042</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>Mkoba</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>66</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MID0053</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MID0053</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>Zvishavane</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>72</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MID0125</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MID0125</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>Lower Gweru</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>79</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MID0070</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MID0070</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>Nyarupakwe</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>82</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MID0200</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MID0200</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>Maboleni</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>85</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MID0133</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MID0133</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>Nyama</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>88</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MID0199</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MID0199</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>Insukamini</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>91</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MID0215</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MID0215</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>Gweru Woodlands</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>96</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MID0195</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MID0195</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>Kwekwe Bus Terminus Micro</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>99</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MID0036</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MID0036</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>Chiguhune</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>101</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MID0033</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MID0033</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>Guinea Fowl</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>105</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MID0218</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MID0218</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>Mberengwa Peak</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>108</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MID0129</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MID0129</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>Jena Mine</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>111</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MID0049</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MID0049</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>Chironde School</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>114</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MID0107</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MID0107</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>Unki Mine</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>117</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MID0126</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MID0126</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>Mberengwa</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>120</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MID0044</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MID0044</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>Mvuma</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>123</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MID0182</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MID0182</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>Haben Park Water tanks</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>127</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MID0160</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MID0160</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>Frog Field Industries</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>135</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MID0108</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MID0108</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>Zvishavane Birthday</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>138</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MID0008</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MID0008</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>Mkoba 3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>144</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MID0127</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MID0127</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>Mnene</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>147</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MID0142</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MID0142</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>Dadaya</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>150</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MID0041</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MID0041</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>Mimosa Mine</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>156</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MID0214</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MID0214</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>Zvishavane MSU Campus</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>162</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MID0052</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MID0052</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>Maglass</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>165</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MID0054</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MID0054</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
           <t>Chinda Heights</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>171</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MID0130</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MID0130</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
           <t>Mabasa</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>174</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MID0171</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MID0171</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
           <t>Redcliff 2</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>177</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MID0009</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MID0009</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
           <t>Mkoba 4</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>183</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MID0010</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MID0010</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
           <t>Mkoba 5</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>189</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MID0168</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MID0168</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
           <t>Mkoba 17</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>195</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MID0198</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MID0198</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
           <t>Kwekwe Desai</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>201</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MID0193</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MID0193</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
           <t>Gweru Riverside</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>207</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MID1020</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MID1020</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
           <t>Senga 3</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>213</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MID0173</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MID0173</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>Chachacha</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>214</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MID0013</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MID0013</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
           <t>Senga</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>220</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MID0014</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MID0014</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
           <t>Senga 2</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>228</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MID0221</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MID0221</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
           <t>Zvishavane Peak</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>234</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MID0084</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MID0084</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
           <t>Mount Shamba</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>237</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MID0204</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MID0204</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
           <t>Gweru First Mutual Centre IBS</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>241</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MID0140</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MID0140</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
           <t>Zvishavane Town</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>247</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MID0206</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MID0206</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
           <t>Zvishavane Low Density</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>253</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MID0100</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MID0100</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
           <t>Silobela Lorreto Mission</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>256</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MID1011</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MID1011</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
           <t>Defe</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>258</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MID0006</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MID0006</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
           <t>Midlands State University</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>265</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MID0072</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MID0072</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
           <t>Charundura</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>268</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MID0055</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MID0055</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
           <t>Milsonia</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>271</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MID0113</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MID0113</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
           <t>Globe and Phoenix Mine</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>274</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MID0211</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MID0211</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
           <t>Driefontein</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>277</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MVO0108</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MVO0108</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
           <t>Fairfields</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>280</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MID0132</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MID0132</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
           <t>Nemangwe</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>283</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MID0128</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MID0128</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
           <t>Mvuma Town</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>289</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MID0134</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MID0134</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
           <t>Kuwirirana</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>292</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MID0065</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MID0065</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
           <t>Nembudziya</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>295</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MID0179</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MID0179</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
           <t>Nembudziya Centre</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>298</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MID0131</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MID0131</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
           <t>Tchoda</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>301</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MID0137</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MID0137</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
           <t>Todal Mine</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>304</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MID0222</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MID0222</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
           <t>Shurugwi Cosite</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>310</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MID0003</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MID0003</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
           <t>Rothbat Building</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>315</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MID0201</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MID0201</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
           <t>Midlands State University 2</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>322</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MID0162</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MID0162</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
           <t>Tsheli</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>323</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MID0011</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MID0011</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
           <t>Anderson School</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>326</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MID0039</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MID0039</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
           <t>Lalapansi</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>329</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MID0149</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MID0149</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
           <t>Chiodza USF</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>333</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MID0165</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MID0165</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
           <t>Njelele ZBC</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>334</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MID0030</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MID0030</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
           <t>Kwekwe ZESA</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>338</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MID0048</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MID0048</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
           <t>Tongogara</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>339</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MID0060</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MID0060</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
           <t>Manoti</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>340</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MID0136</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MID0136</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
           <t>Shurugwi Town</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>347</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MID0029</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MID0029</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
           <t>Torwood</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>353</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MID0046</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MID0046</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
           <t>Sino Zim</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>356</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MID0047</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MID0047</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
           <t>Thema Farm</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>358</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MID0071</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MID0071</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
           <t>Sebakwe Estates</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>360</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MID0001</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MID0001</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
           <t>Gweru Athlone</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>366</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MID0180</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MID0180</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
           <t>Gweru CBD Nkabazwe</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>374</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MID0184</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MID0184</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
           <t>Gokwe 4</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>382</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MID0196</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MID0196</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
           <t>Gweru Innscor Micro</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>384</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MID0016</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MID0016</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
           <t>Bensam Flats</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>394</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MID0139</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MID0139</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
           <t>Njelele</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>397</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MID0114</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MID0114</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
           <t>Redcliff Turn Off</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>402</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MID0118</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MID0118</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
           <t>Gaika Mine</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>405</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MID0061</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MID0061</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
           <t>Kana</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>409</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MID0103</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MID0103</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
           <t>Gweru Hospital</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>415</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MID0123</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MID0123</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
           <t>Zhombe Runyararo</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>416</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MID0004</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MID0004</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
           <t>Gweru CABS</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>424</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MID0012</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MID0012</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
           <t>Gweru Second Street Clinic</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>430</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MID0138</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MID0138</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
           <t>Mufiri</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>433</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MID0120</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MID0120</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
           <t>Mbizo 1 Extension</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>439</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MID0015</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MID0015</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
           <t>Lundi Park</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>441</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MID0155</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MID0155</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
           <t>Gweru Clan</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>447</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MID0110</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MID0110</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
           <t>Musipane</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>450</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MID0069</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MID0069</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
           <t>Zhombe</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>453</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MID0220</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MID0220</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
           <t>Manunure High School</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>460</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MID0005</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MID0005</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
           <t>Mambo</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>466</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MID0007</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MID0007</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
           <t>Mkoba South</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>478</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MID0018</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MID0018</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
           <t>Amaveni 2</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>484</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MID0019</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MID0019</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
           <t>Kwekwe CBD2</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>490</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MID0020</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MID0020</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
           <t>Kwekwe High</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>496</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MID0021</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MID0021</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
           <t>Mbizo</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>502</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MID0022</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MID0022</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
           <t>Mbizo 2</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>508</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MID0023</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MID0023</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
           <t>Mbizo 3</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>514</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MID0024</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MID0024</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
           <t>Msasa Park Kwekwe</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>517</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MID0025</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MID0025</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
           <t>Kwekwe Polytechnic</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>523</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MID0026</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MID0026</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
           <t>Redcliff</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>529</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MID0028</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MID0028</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
           <t>Sable Chemicals</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>532</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MID0032</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MID0032</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
           <t>Chiundura</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>535</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MID0034</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MID0034</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
           <t>Gweru Kopje</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>538</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MID0035</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MID0035</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
           <t>Connemara</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>541</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MID0037</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MID0037</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
           <t>Kwekwe Chicago</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>544</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MID0038</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MID0038</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
           <t>Kwekwe CAIPF</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>550</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MID0045</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MID0045</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
           <t>Silobela Crossroads</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>553</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MID0050</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MID0050</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
           <t>Wida</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>556</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MID0051</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MID0051</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
           <t>Shurugwi</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>562</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MID0062</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MID0062</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
           <t>Empress Mine</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>565</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>MID0063</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MID0063</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
           <t>Gokwe</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>571</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>MID0064</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MID0064</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
           <t>Mapfungautsi</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>578</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>MID0073</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MID0073</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
           <t>Gweru Ascot</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>586</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MID0102</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MID0102</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
           <t>Gokwe 2</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>592</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>MID0104</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MID0104</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
           <t>Southview</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>598</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>MID0105</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MID0105</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
           <t>Dabuka</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>601</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MID0106</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MID0106</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
           <t>Gweru CBD NRZ</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>604</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>MID0109</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MID0109</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
           <t>Ridgemont</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>607</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>MID0111</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MID0111</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
           <t>Pakame</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>610</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>MID0116</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MID0116</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
           <t>Treetops</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>613</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>MID0117</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MID0117</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
           <t>Kwekwe Newtown</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>619</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MID0119</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MID0119</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
           <t>Kwekwe Southwood</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>622</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MID0121</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MID0121</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
           <t>Hazel Deen</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>625</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>MID0124</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MID0124</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
           <t>Gangata</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>628</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MID0141</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MID0141</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
           <t>Zvishavane Highlands</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>634</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MID0150</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MID0150</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
           <t>Manyoni</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>637</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MID0156</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MID0156</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
           <t>Kwekwe Industries</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>643</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MID0166</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MID0166</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
           <t>Gwengula</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>646</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>MID0167</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MID0167</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
           <t>Ivene</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>649</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MID0170</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MID0170</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
           <t>Gokwe 3</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>655</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>MID0175</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MID0175</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
           <t>Gweru Northleigh</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>661</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MID0183</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MID0183</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
           <t>Mbizo 5</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>667</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MID0191</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MID0191</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
           <t>Antelope Park</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>668</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MID0192</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MID0192</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
           <t>Golden Quarry</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>671</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>MID1001</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MID1001</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
           <t>Gweru BSC</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>674</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>MID1051</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MID1051</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
           <t>Bomba</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>677</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>MID0207</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MID0207</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
           <t>Unki Impali Housing Project</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>686</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MID0213</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MID0213</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
           <t>Kwekwe Fitchlea</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>692</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MID0217</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MID0217</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
           <t>Mbizo Section 21</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>700</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>MID0202</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
-        <is>
-          <t>MID0202</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>Somabhula</t>
         </is>
